--- a/inst/extdata/software-example/software-example-criteria-weights.xlsx
+++ b/inst/extdata/software-example/software-example-criteria-weights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\mdmcda\inst\extdata\software-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC0F68-75E2-4229-8CF7-9D2DCCD1AA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8348C-05C2-474A-BCD3-C7AADDA18A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
   <si>
     <t>scorer</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>lo_score</t>
@@ -143,6 +140,18 @@
   </si>
   <si>
     <t>training_costs</t>
+  </si>
+  <si>
+    <t>citerion_id</t>
+  </si>
+  <si>
+    <t>citerion_label</t>
+  </si>
+  <si>
+    <t>citerion_description</t>
+  </si>
+  <si>
+    <t>parentCriterion_id</t>
   </si>
 </sst>
 </file>
@@ -430,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -451,34 +460,34 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -499,10 +508,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -547,10 +556,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -574,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -595,34 +604,34 @@
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4">
         <v>100</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -643,34 +652,34 @@
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4">
         <v>100</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -691,13 +700,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -718,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -739,34 +748,34 @@
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4">
         <v>100</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -787,34 +796,34 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4">
         <v>100</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -835,13 +844,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -862,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -883,34 +892,34 @@
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4">
         <v>100</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -931,34 +940,34 @@
     </row>
     <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4">
         <v>100</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -27962,13 +27971,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -27976,16 +27985,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -27993,16 +28002,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28010,16 +28019,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28027,16 +28036,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28044,16 +28053,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28061,16 +28070,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28078,16 +28087,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28095,16 +28104,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -28112,16 +28121,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29131,172 +29140,172 @@
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30306,172 +30315,172 @@
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
